--- a/data/trans_orig/CoPsoQ_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>54296</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42152</v>
+        <v>42434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69484</v>
+        <v>71813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1810699735388323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1405713665579078</v>
+        <v>0.1415095141075563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2317187297940792</v>
+        <v>0.2394858041172721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -764,19 +764,19 @@
         <v>38645</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27916</v>
+        <v>28068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51103</v>
+        <v>50710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2053218668979786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1483146155042888</v>
+        <v>0.1491264392791694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2715062129036871</v>
+        <v>0.2694205111098671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -785,19 +785,19 @@
         <v>92942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75108</v>
+        <v>75775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111843</v>
+        <v>112675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1904222063703064</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1538838245518327</v>
+        <v>0.1552496206988961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2291479016278247</v>
+        <v>0.2308520760972006</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>245568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230380</v>
+        <v>228051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257712</v>
+        <v>257430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8189300264611677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7682812702059207</v>
+        <v>0.7605141958827278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8594286334420922</v>
+        <v>0.8584904858924438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -835,19 +835,19 @@
         <v>149574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137116</v>
+        <v>137509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160303</v>
+        <v>160151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7946781331020214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7284937870963131</v>
+        <v>0.7305794888901328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8516853844957113</v>
+        <v>0.8508735607208306</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>365</v>
@@ -856,19 +856,19 @@
         <v>395141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>376240</v>
+        <v>375408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>412975</v>
+        <v>412308</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8095777936296936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7708520983721752</v>
+        <v>0.7691479239027993</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8461161754481672</v>
+        <v>0.8447503793011032</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>38708</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26930</v>
+        <v>27248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53565</v>
+        <v>54239</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1527471379399549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1062701377368905</v>
+        <v>0.1075228508405881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.211374745213881</v>
+        <v>0.2140313258364313</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -981,19 +981,19 @@
         <v>34315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24709</v>
+        <v>24764</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45592</v>
+        <v>45923</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2080429070683046</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1498035149221273</v>
+        <v>0.1501391505226235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2764122581381003</v>
+        <v>0.2784158443494201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -1002,19 +1002,19 @@
         <v>73023</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57711</v>
+        <v>58436</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92907</v>
+        <v>91993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1745482411388156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1379460457986759</v>
+        <v>0.1396799760048027</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2220755434295408</v>
+        <v>0.2198918770215197</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>214706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199849</v>
+        <v>199175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>226484</v>
+        <v>226166</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8472528620600451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7886252547861187</v>
+        <v>0.7859686741635686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8937298622631094</v>
+        <v>0.8924771491594112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -1052,19 +1052,19 @@
         <v>130628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119351</v>
+        <v>119020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140234</v>
+        <v>140179</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7919570929316955</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7235877418618997</v>
+        <v>0.7215841556505798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8501964850778726</v>
+        <v>0.8498608494773761</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>315</v>
@@ -1073,19 +1073,19 @@
         <v>345334</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>325450</v>
+        <v>326364</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360646</v>
+        <v>359921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8254517588611844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7779244565704592</v>
+        <v>0.780108122978481</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.862053954201324</v>
+        <v>0.8603200239951974</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>75953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62259</v>
+        <v>62853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92396</v>
+        <v>91091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2774270357616208</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2274075867418909</v>
+        <v>0.2295771635109644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3374838590326656</v>
+        <v>0.3327195265050616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1198,19 +1198,19 @@
         <v>22689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14641</v>
+        <v>15085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31396</v>
+        <v>31919</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2130756064767109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1374905806992569</v>
+        <v>0.1416674730900051</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2948378723135268</v>
+        <v>0.2997480984529068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1219,19 +1219,19 @@
         <v>98643</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81593</v>
+        <v>81273</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116122</v>
+        <v>115135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2594066916989909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2145689144646682</v>
+        <v>0.2137283642388585</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3053719664342232</v>
+        <v>0.3027776784925823</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>197825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>181382</v>
+        <v>182687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>211519</v>
+        <v>210925</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7225729642383792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6625161409673345</v>
+        <v>0.6672804734949385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7725924132581092</v>
+        <v>0.7704228364890356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -1269,19 +1269,19 @@
         <v>83796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75089</v>
+        <v>74566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91844</v>
+        <v>91400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.786924393523289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7051621276864732</v>
+        <v>0.7002519015470933</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8625094193007432</v>
+        <v>0.8583325269099946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>273</v>
@@ -1290,19 +1290,19 @@
         <v>281621</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>264142</v>
+        <v>265129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>298671</v>
+        <v>298991</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7405933083010091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6946280335657766</v>
+        <v>0.6972223215074177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7854310855353316</v>
+        <v>0.7862716357611412</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>105294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87920</v>
+        <v>89085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125410</v>
+        <v>126752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2549882767296534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.212915494219106</v>
+        <v>0.215735865910604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3037034813338053</v>
+        <v>0.3069523355298546</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1415,19 +1415,19 @@
         <v>74116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57852</v>
+        <v>59119</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89453</v>
+        <v>88938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.251423848990645</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1962504142249706</v>
+        <v>0.2005504070318775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3034501732847864</v>
+        <v>0.301706043785697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -1436,19 +1436,19 @@
         <v>179410</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155723</v>
+        <v>155119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204529</v>
+        <v>203922</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2535035947128125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2200349119334939</v>
+        <v>0.2191805102009762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2889960205639796</v>
+        <v>0.2881388067917356</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>307642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287526</v>
+        <v>286184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>325016</v>
+        <v>323851</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7450117232703466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6962965186661946</v>
+        <v>0.693047664470145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7870845057808938</v>
+        <v>0.7842641340893958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -1486,19 +1486,19 @@
         <v>220669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>205332</v>
+        <v>205847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236933</v>
+        <v>235666</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.748576151009355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6965498267152136</v>
+        <v>0.698293956214303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8037495857750293</v>
+        <v>0.7994495929681226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>502</v>
@@ -1507,19 +1507,19 @@
         <v>528311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>503192</v>
+        <v>503799</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551998</v>
+        <v>552602</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7464964052871875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7110039794360205</v>
+        <v>0.7118611932082642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7799650880665062</v>
+        <v>0.7808194897990237</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>38321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28288</v>
+        <v>27605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50081</v>
+        <v>49234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2557690142586638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1888064669432926</v>
+        <v>0.1842424328958626</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.334258667840821</v>
+        <v>0.3286053713941763</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1632,19 +1632,19 @@
         <v>48358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36882</v>
+        <v>36648</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62163</v>
+        <v>61590</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.281950325883598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2150365274102772</v>
+        <v>0.2136746651099798</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3624343786010995</v>
+        <v>0.3590944150595068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -1653,19 +1653,19 @@
         <v>86680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70885</v>
+        <v>71383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104292</v>
+        <v>103259</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2697431249897013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2205892317487662</v>
+        <v>0.2221411513415597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3245517556148861</v>
+        <v>0.3213356081458998</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>111507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99747</v>
+        <v>100594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121540</v>
+        <v>122223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7442309857413363</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6657413321591791</v>
+        <v>0.6713946286058237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8111935330567074</v>
+        <v>0.815757567104137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -1703,19 +1703,19 @@
         <v>123156</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109351</v>
+        <v>109924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>134632</v>
+        <v>134866</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.718049674116402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6375656213989006</v>
+        <v>0.6409055849404934</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7849634725897231</v>
+        <v>0.7863253348900204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>216</v>
@@ -1724,19 +1724,19 @@
         <v>234662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>217050</v>
+        <v>218083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>250457</v>
+        <v>249959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7302568750102987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6754482443851136</v>
+        <v>0.6786643918541003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7794107682512336</v>
+        <v>0.7778588486584408</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>312573</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -1849,19 +1849,19 @@
         <v>218125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>488</v>
@@ -1870,19 +1870,19 @@
         <v>530698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>1077247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1045573</v>
+        <v>1042475</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1108062</v>
+        <v>1110870</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7750980353042721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.752308381568574</v>
+        <v>0.7500791254028325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7972703159861566</v>
+        <v>0.7992904374916141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>653</v>
@@ -1920,19 +1920,19 @@
         <v>707822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>677413</v>
+        <v>680585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>733569</v>
+        <v>732686</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7644306805035411</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7315889708497993</v>
+        <v>0.7350145450237656</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7922365854261355</v>
+        <v>0.7912831684095859</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1671</v>
@@ -1941,19 +1941,19 @@
         <v>1785069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1742896</v>
+        <v>1738575</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1824824</v>
+        <v>1824010</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7708327519534548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7526214783397871</v>
+        <v>0.7507555673424448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7879999771615185</v>
+        <v>0.7876482299753822</v>
       </c>
     </row>
     <row r="21">
@@ -2286,19 +2286,19 @@
         <v>55896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43687</v>
+        <v>43258</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71117</v>
+        <v>70938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2024841486581893</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1582569837728065</v>
+        <v>0.1567000583168591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2576205404987551</v>
+        <v>0.2569709971589716</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -2307,19 +2307,19 @@
         <v>43951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32705</v>
+        <v>32145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56475</v>
+        <v>57444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2052106888005014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1527046177218876</v>
+        <v>0.1500871238467733</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2636890107126654</v>
+        <v>0.2682111096293816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -2328,19 +2328,19 @@
         <v>99847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83135</v>
+        <v>82830</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119441</v>
+        <v>118195</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2036753418095954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1695847083098961</v>
+        <v>0.1689631902366555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2436450125716011</v>
+        <v>0.2411034444012182</v>
       </c>
     </row>
     <row r="5">
@@ -2357,19 +2357,19 @@
         <v>220157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>204936</v>
+        <v>205115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232366</v>
+        <v>232795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7975158513418107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7423794595012448</v>
+        <v>0.7430290028410282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8417430162271934</v>
+        <v>0.8432999416831404</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -2378,19 +2378,19 @@
         <v>170223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>157699</v>
+        <v>156730</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181469</v>
+        <v>182029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7947893111994986</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7363109892873345</v>
+        <v>0.7317888903706183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8472953822781123</v>
+        <v>0.8499128761532266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>366</v>
@@ -2399,19 +2399,19 @@
         <v>390380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>370786</v>
+        <v>372032</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>407092</v>
+        <v>407397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7963246581904045</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7563549874283989</v>
+        <v>0.7588965555987818</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8304152916901043</v>
+        <v>0.8310368097633445</v>
       </c>
     </row>
     <row r="6">
@@ -2503,19 +2503,19 @@
         <v>47325</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35127</v>
+        <v>35394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62225</v>
+        <v>61058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1945651509957524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1444165585122449</v>
+        <v>0.1455133560082875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2558187508611371</v>
+        <v>0.2510214708771746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -2524,19 +2524,19 @@
         <v>45486</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35132</v>
+        <v>34451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58354</v>
+        <v>58096</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2404436790154046</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1857105589742123</v>
+        <v>0.1821117857734061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3084630915817289</v>
+        <v>0.3070984905228099</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -2545,19 +2545,19 @@
         <v>92812</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75416</v>
+        <v>75774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109559</v>
+        <v>111212</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2146365210876005</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1744077202764828</v>
+        <v>0.1752342308596631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.253366041852412</v>
+        <v>0.2571901317012809</v>
       </c>
     </row>
     <row r="8">
@@ -2574,19 +2574,19 @@
         <v>195912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181012</v>
+        <v>182179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>208110</v>
+        <v>207843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8054348490042477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7441812491388626</v>
+        <v>0.7489785291228254</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8555834414877551</v>
+        <v>0.8544866439917125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -2595,19 +2595,19 @@
         <v>143690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130822</v>
+        <v>131080</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154044</v>
+        <v>154725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7595563209845955</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6915369084182705</v>
+        <v>0.6929015094771902</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8142894410257872</v>
+        <v>0.817888214226594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>317</v>
@@ -2616,19 +2616,19 @@
         <v>339601</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>322854</v>
+        <v>321201</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>356997</v>
+        <v>356639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7853634789123994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.746633958147588</v>
+        <v>0.7428098682987191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8255922797235171</v>
+        <v>0.8247657691403368</v>
       </c>
     </row>
     <row r="9">
@@ -2720,19 +2720,19 @@
         <v>38723</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28633</v>
+        <v>28556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51897</v>
+        <v>52456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1790043297446247</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.132361599043086</v>
+        <v>0.1320070372320452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2399019891332288</v>
+        <v>0.2424885467549179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2741,19 +2741,19 @@
         <v>16977</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11098</v>
+        <v>10847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25011</v>
+        <v>24304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2607129749669362</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1704253148261443</v>
+        <v>0.1665770624253794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3840814407261108</v>
+        <v>0.3732339132803424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -2762,19 +2762,19 @@
         <v>55700</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42959</v>
+        <v>41925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70656</v>
+        <v>68898</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1979093725321664</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1526387479574577</v>
+        <v>0.14896381611</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2510493188503284</v>
+        <v>0.2448043253901118</v>
       </c>
     </row>
     <row r="11">
@@ -2791,19 +2791,19 @@
         <v>177602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164428</v>
+        <v>163869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>187692</v>
+        <v>187769</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8209956702553753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7600980108667712</v>
+        <v>0.757511453245082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.867638400956914</v>
+        <v>0.8679929627679548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -2812,19 +2812,19 @@
         <v>48141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40107</v>
+        <v>40814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54020</v>
+        <v>54271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7392870250330638</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6159185592738893</v>
+        <v>0.6267660867196577</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8295746851738557</v>
+        <v>0.8334229375746206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>212</v>
@@ -2833,19 +2833,19 @@
         <v>225743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210787</v>
+        <v>212545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238484</v>
+        <v>239518</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8020906274678336</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7489506811496716</v>
+        <v>0.7551956746098881</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8473612520425423</v>
+        <v>0.8510361838900001</v>
       </c>
     </row>
     <row r="12">
@@ -2937,19 +2937,19 @@
         <v>117870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101440</v>
+        <v>100058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139274</v>
+        <v>137908</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2416840641253384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2079968764456626</v>
+        <v>0.2051633696690671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2855733309626273</v>
+        <v>0.2827716703647991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -2958,19 +2958,19 @@
         <v>62273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49299</v>
+        <v>49002</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75998</v>
+        <v>76595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1706368230014066</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1350882101917753</v>
+        <v>0.134273647300083</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2082466521412932</v>
+        <v>0.2098820727212447</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -2979,19 +2979,19 @@
         <v>180142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158278</v>
+        <v>157934</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207377</v>
+        <v>206275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2112749543790303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1856327420837194</v>
+        <v>0.1852285534559785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2432170688262101</v>
+        <v>0.2419247643228031</v>
       </c>
     </row>
     <row r="14">
@@ -3008,19 +3008,19 @@
         <v>369831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348427</v>
+        <v>349793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>386261</v>
+        <v>387643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7583159358746616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7144266690373728</v>
+        <v>0.717228329635201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7920031235543373</v>
+        <v>0.7948366303309328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -3029,19 +3029,19 @@
         <v>302669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288944</v>
+        <v>288347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315643</v>
+        <v>315940</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8293631769985934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.791753347858709</v>
+        <v>0.790117927278755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8649117898082247</v>
+        <v>0.8657263526999169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>649</v>
@@ -3050,19 +3050,19 @@
         <v>672500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>645265</v>
+        <v>646367</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>694364</v>
+        <v>694708</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7887250456209697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.75678293117379</v>
+        <v>0.7580752356771969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8143672579162808</v>
+        <v>0.8147714465440217</v>
       </c>
     </row>
     <row r="15">
@@ -3154,19 +3154,19 @@
         <v>57937</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46478</v>
+        <v>45482</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72202</v>
+        <v>71958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.300156762331645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2407912123140347</v>
+        <v>0.2356290514182774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3740627668734146</v>
+        <v>0.3727954773103546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -3175,19 +3175,19 @@
         <v>68890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56337</v>
+        <v>55521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81348</v>
+        <v>82687</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3485995269146541</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.285078978410118</v>
+        <v>0.2809511524924775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4116404340714268</v>
+        <v>0.4184154187825408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -3196,19 +3196,19 @@
         <v>126826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108180</v>
+        <v>108474</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146804</v>
+        <v>146472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3246631961819226</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2769311800970485</v>
+        <v>0.2776833346582608</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3758035981493867</v>
+        <v>0.3749544870207694</v>
       </c>
     </row>
     <row r="17">
@@ -3225,19 +3225,19 @@
         <v>135085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120820</v>
+        <v>121064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146544</v>
+        <v>147540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6998432376683551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6259372331265852</v>
+        <v>0.6272045226896453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7592087876859652</v>
+        <v>0.7643709485817224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -3246,19 +3246,19 @@
         <v>128729</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116271</v>
+        <v>114932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141282</v>
+        <v>142098</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.651400473085346</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5883595659285731</v>
+        <v>0.5815845812174592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.714921021589882</v>
+        <v>0.7190488475075225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>249</v>
@@ -3267,19 +3267,19 @@
         <v>263814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243836</v>
+        <v>244168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>282460</v>
+        <v>282166</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6753368038180774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6241964018506135</v>
+        <v>0.6250455129792306</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7230688199029516</v>
+        <v>0.7223166653417392</v>
       </c>
     </row>
     <row r="18">
@@ -3371,19 +3371,19 @@
         <v>317751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>233</v>
@@ -3392,19 +3392,19 @@
         <v>237577</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>210905</v>
+        <v>210295</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>265162</v>
+        <v>266675</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.230426595408816</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2045573264901488</v>
+        <v>0.2039663551599668</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2571823407223648</v>
+        <v>0.2586491203681185</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>531</v>
@@ -3413,19 +3413,19 @@
         <v>555327</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>511771</v>
+        <v>514001</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>594565</v>
+        <v>598069</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2269082663613596</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2091109356938454</v>
+        <v>0.2100221947772792</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2429409795099508</v>
+        <v>0.244372498035886</v>
       </c>
     </row>
     <row r="20">
@@ -3442,19 +3442,19 @@
         <v>1098586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1063692</v>
+        <v>1064158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1129183</v>
+        <v>1127912</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7756529168610102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.751016205058498</v>
+        <v>0.7513451607082292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7972560062364052</v>
+        <v>0.7963582336831014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>774</v>
@@ -3463,19 +3463,19 @@
         <v>793452</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>765867</v>
+        <v>764354</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>820124</v>
+        <v>820734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.769573404591184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7428176592776352</v>
+        <v>0.7413508796318815</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7954426735098512</v>
+        <v>0.7960336448400332</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1793</v>
@@ -3484,19 +3484,19 @@
         <v>1892038</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1852800</v>
+        <v>1849296</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1935594</v>
+        <v>1933364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7730917336386405</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7570590204900491</v>
+        <v>0.7556275019641139</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7908890643061545</v>
+        <v>0.7899778052227208</v>
       </c>
     </row>
     <row r="21">
@@ -3829,19 +3829,19 @@
         <v>33250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22191</v>
+        <v>22580</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44786</v>
+        <v>45876</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3378912087394356</v>
+        <v>0.3378912087394357</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2255061970533579</v>
+        <v>0.2294626789697754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4551196870164703</v>
+        <v>0.4662007981027514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -3850,19 +3850,19 @@
         <v>36513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28296</v>
+        <v>28435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45108</v>
+        <v>44962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4314413137278337</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3343499096736282</v>
+        <v>0.3359866222624286</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5329998710813847</v>
+        <v>0.5312787732392381</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -3871,19 +3871,19 @@
         <v>69763</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55629</v>
+        <v>56458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83961</v>
+        <v>83751</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3811461176121338</v>
+        <v>0.3811461176121337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3039253426190617</v>
+        <v>0.308452214932771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4587134509782612</v>
+        <v>0.4575689908958743</v>
       </c>
     </row>
     <row r="5">
@@ -3900,19 +3900,19 @@
         <v>65155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53619</v>
+        <v>52529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76214</v>
+        <v>75825</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6621087912605643</v>
+        <v>0.6621087912605645</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5448803129835298</v>
+        <v>0.5337992018972478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7744938029466422</v>
+        <v>0.7705373210302248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -3921,19 +3921,19 @@
         <v>48117</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39522</v>
+        <v>39668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56334</v>
+        <v>56195</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5685586862721663</v>
+        <v>0.5685586862721664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4670001289186154</v>
+        <v>0.4687212267607618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6656500903263718</v>
+        <v>0.6640133777375714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -3942,19 +3942,19 @@
         <v>113272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99074</v>
+        <v>99284</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>127406</v>
+        <v>126577</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6188538823878664</v>
+        <v>0.6188538823878663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.541286549021739</v>
+        <v>0.5424310091041258</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6960746573809382</v>
+        <v>0.691547785067229</v>
       </c>
     </row>
     <row r="6">
@@ -4046,19 +4046,19 @@
         <v>27265</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19004</v>
+        <v>19055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36315</v>
+        <v>36366</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3766661633846464</v>
+        <v>0.3766661633846465</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2625363859812903</v>
+        <v>0.2632383065894474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5016862038790758</v>
+        <v>0.5023869786559069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -4067,19 +4067,19 @@
         <v>26539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19568</v>
+        <v>19766</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33993</v>
+        <v>34779</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3970467406539677</v>
+        <v>0.3970467406539675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2927562447776385</v>
+        <v>0.2957227242257184</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5085624538794601</v>
+        <v>0.520318523329014</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -4088,19 +4088,19 @@
         <v>53805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42432</v>
+        <v>42672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66728</v>
+        <v>65795</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3864506155901003</v>
+        <v>0.3864506155901002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3047667161226703</v>
+        <v>0.3064930600934874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4792736740150547</v>
+        <v>0.4725678803371207</v>
       </c>
     </row>
     <row r="8">
@@ -4117,19 +4117,19 @@
         <v>45121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36071</v>
+        <v>36020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53382</v>
+        <v>53331</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6233338366153537</v>
+        <v>0.6233338366153536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4983137961209245</v>
+        <v>0.4976130213440935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7374636140187103</v>
+        <v>0.7367616934105526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -4138,19 +4138,19 @@
         <v>40302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32848</v>
+        <v>32062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47273</v>
+        <v>47075</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6029532593460325</v>
+        <v>0.6029532593460322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.49143754612054</v>
+        <v>0.4796814766709858</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7072437552223616</v>
+        <v>0.7042772757742815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -4159,19 +4159,19 @@
         <v>85423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72500</v>
+        <v>73433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>96796</v>
+        <v>96556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6135493844098997</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5207263259849454</v>
+        <v>0.5274321196628794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6952332838773304</v>
+        <v>0.6935069399065137</v>
       </c>
     </row>
     <row r="9">
@@ -4263,19 +4263,19 @@
         <v>22816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13705</v>
+        <v>14154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32026</v>
+        <v>32234</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3291434734831587</v>
+        <v>0.3291434734831585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1977060188746771</v>
+        <v>0.20418525296564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4620213865655526</v>
+        <v>0.4650157571035359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4284,19 +4284,19 @@
         <v>5066</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2084</v>
+        <v>1984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10229</v>
+        <v>10026</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.181384406393769</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07460116290646221</v>
+        <v>0.07102031127435526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3662346148248729</v>
+        <v>0.3589569437198496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4305,19 +4305,19 @@
         <v>27882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18767</v>
+        <v>17813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38742</v>
+        <v>37774</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2867050676651827</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1929770303871284</v>
+        <v>0.1831687828122855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3983759849261166</v>
+        <v>0.3884280757322818</v>
       </c>
     </row>
     <row r="11">
@@ -4334,19 +4334,19 @@
         <v>46502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37292</v>
+        <v>37084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55613</v>
+        <v>55164</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6708565265168412</v>
+        <v>0.6708565265168411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5379786134344477</v>
+        <v>0.5349842428964643</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8022939811253229</v>
+        <v>0.7958147470343603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -4355,19 +4355,19 @@
         <v>22865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17702</v>
+        <v>17905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25847</v>
+        <v>25947</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8186155936062309</v>
+        <v>0.8186155936062312</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.633765385175127</v>
+        <v>0.6410430562801501</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9253988370935379</v>
+        <v>0.9289796887256447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -4376,19 +4376,19 @@
         <v>69367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58507</v>
+        <v>59475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78482</v>
+        <v>79436</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7132949323348173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6016240150738835</v>
+        <v>0.611571924267718</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8070229696128716</v>
+        <v>0.8168312171877143</v>
       </c>
     </row>
     <row r="12">
@@ -4480,19 +4480,19 @@
         <v>40128</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28587</v>
+        <v>29045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53182</v>
+        <v>53285</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2998940223237658</v>
+        <v>0.2998940223237657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2136391676384508</v>
+        <v>0.2170676283237309</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3974485278369738</v>
+        <v>0.3982208009146201</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4501,19 +4501,19 @@
         <v>22114</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15019</v>
+        <v>15462</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30907</v>
+        <v>29857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1958289573458065</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1329963461301085</v>
+        <v>0.1369232938686895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2736910347722121</v>
+        <v>0.2643891735466056</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -4522,19 +4522,19 @@
         <v>62243</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48674</v>
+        <v>49724</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77385</v>
+        <v>78594</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2522648648135669</v>
+        <v>0.252264864813567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1972738575375486</v>
+        <v>0.2015299709911535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3136340919502816</v>
+        <v>0.3185365805941237</v>
       </c>
     </row>
     <row r="14">
@@ -4551,19 +4551,19 @@
         <v>93680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80626</v>
+        <v>80523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105221</v>
+        <v>104763</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7001059776762343</v>
+        <v>0.7001059776762345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6025514721630262</v>
+        <v>0.6017791990853799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7863608323615487</v>
+        <v>0.7829323716762692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -4572,19 +4572,19 @@
         <v>90813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82020</v>
+        <v>83070</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97908</v>
+        <v>97465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8041710426541934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.726308965227788</v>
+        <v>0.7356108264533943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8670036538698916</v>
+        <v>0.8630767061313105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>196</v>
@@ -4593,19 +4593,19 @@
         <v>184492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>169350</v>
+        <v>168141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>198061</v>
+        <v>197011</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7477351351864331</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6863659080497185</v>
+        <v>0.6814634194058763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8027261424624516</v>
+        <v>0.7984700290088466</v>
       </c>
     </row>
     <row r="15">
@@ -4697,19 +4697,19 @@
         <v>27978</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16872</v>
+        <v>16720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39934</v>
+        <v>40408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3028082682195777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1826111592077371</v>
+        <v>0.1809649757982214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4322083776471995</v>
+        <v>0.4373365772571699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -4718,19 +4718,19 @@
         <v>20909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14896</v>
+        <v>14295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29370</v>
+        <v>28234</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2435654725041973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.173521550781622</v>
+        <v>0.1665122332234119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3421243186508045</v>
+        <v>0.3288874576889175</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -4739,19 +4739,19 @@
         <v>48887</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36052</v>
+        <v>35986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65045</v>
+        <v>64926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2742749985878004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2022646685102757</v>
+        <v>0.2018919355327703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3649224739702022</v>
+        <v>0.3642594351512578</v>
       </c>
     </row>
     <row r="17">
@@ -4768,19 +4768,19 @@
         <v>64417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52461</v>
+        <v>51987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75523</v>
+        <v>75675</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.697191731780422</v>
+        <v>0.6971917317804224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5677916223528001</v>
+        <v>0.5626634227428287</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8173888407922628</v>
+        <v>0.8190350242017786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -4789,19 +4789,19 @@
         <v>64938</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>56477</v>
+        <v>57613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70951</v>
+        <v>71552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7564345274958026</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6578756813491957</v>
+        <v>0.6711125423110831</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8264784492183781</v>
+        <v>0.8334877667765883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>134</v>
@@ -4810,19 +4810,19 @@
         <v>129355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113197</v>
+        <v>113316</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142190</v>
+        <v>142256</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7257250014121995</v>
+        <v>0.7257250014121998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6350775260297978</v>
+        <v>0.6357405648487422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7977353314897242</v>
+        <v>0.7981080644672298</v>
       </c>
     </row>
     <row r="18">
@@ -4914,19 +4914,19 @@
         <v>151437</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126867</v>
+        <v>127528</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175982</v>
+        <v>176162</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3247553375696394</v>
+        <v>0.3247553375696395</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2720658630437044</v>
+        <v>0.2734822844442138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3773908632123224</v>
+        <v>0.377777457490332</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -4935,19 +4935,19 @@
         <v>111142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94108</v>
+        <v>95957</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127625</v>
+        <v>128042</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2938891939690481</v>
+        <v>0.293889193969048</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2488458457396287</v>
+        <v>0.2537347954636941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3374745145092732</v>
+        <v>0.338578231050128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -4956,19 +4956,19 @@
         <v>262579</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>233540</v>
+        <v>234156</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>292610</v>
+        <v>290565</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3109329236135819</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2765467990612482</v>
+        <v>0.2772754178283534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3464938961049172</v>
+        <v>0.344072290496416</v>
       </c>
     </row>
     <row r="20">
@@ -4985,19 +4985,19 @@
         <v>314874</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290329</v>
+        <v>290149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>339444</v>
+        <v>338783</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6752446624303605</v>
+        <v>0.6752446624303606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6226091367876776</v>
+        <v>0.6222225425096681</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7279341369562954</v>
+        <v>0.7265177155557859</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>346</v>
@@ -5006,19 +5006,19 @@
         <v>267035</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250552</v>
+        <v>250135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>284069</v>
+        <v>282220</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7061108060309521</v>
+        <v>0.7061108060309519</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6625254854907269</v>
+        <v>0.6614217689498721</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7511541542603714</v>
+        <v>0.7462652045363058</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>604</v>
@@ -5027,19 +5027,19 @@
         <v>581909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>551878</v>
+        <v>553923</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>610948</v>
+        <v>610332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6890670763864181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6535061038950829</v>
+        <v>0.655927709503584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7234532009387522</v>
+        <v>0.7227245821716469</v>
       </c>
     </row>
     <row r="21">
